--- a/files/colored_sequence_PLOT.xlsx
+++ b/files/colored_sequence_PLOT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13095" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -28,14 +28,6 @@
       <name val="BIZ UDPゴシック"/>
       <charset val="128"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="BIZ UDPゴシック"/>
-      <charset val="128"/>
-      <family val="2"/>
       <sz val="6"/>
     </font>
     <font>
@@ -50,7 +42,12 @@
       <charset val="128"/>
       <family val="3"/>
       <b val="1"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="BIZ UDPゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -68,12 +65,25 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.3999755851924192"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.3999755851924192"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.3999755851924192"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -82,47 +92,59 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="21" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <name val="BIZ UDPゴシック"/>
+        <charset val="128"/>
+        <family val="3"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color auto="1"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor auto="1"/>
@@ -132,11 +154,31 @@
     <dxf>
       <font>
         <name val="BIZ UDPゴシック"/>
+        <charset val="128"/>
+        <family val="3"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color auto="1"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="BIZ UDPゴシック"/>
+        <charset val="128"/>
+        <family val="3"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <condense val="0"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <extend val="0"/>
         <sz val="11"/>
         <vertAlign val="baseline"/>
@@ -152,12 +194,14 @@
     <dxf>
       <font>
         <name val="BIZ UDPゴシック"/>
+        <charset val="128"/>
+        <family val="3"/>
         <b val="1"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <condense val="0"/>
-        <color rgb="FFFF0000"/>
+        <color auto="1"/>
         <extend val="0"/>
         <sz val="11"/>
         <vertAlign val="baseline"/>
@@ -169,6 +213,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -244,11 +295,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:B73" headerRowCount="1" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:B73"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:C145" headerRowCount="1" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
+  <autoFilter ref="A1:C145"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="設備名" dataDxfId="3"/>
     <tableColumn id="2" name="時間" dataDxfId="2"/>
+    <tableColumn id="3" name="日付" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -521,15 +573,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="37" workbookViewId="0">
+      <selection activeCell="C83" sqref="A2:C145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.6"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="2" min="1" max="2"/>
+    <col width="8.7109375" customWidth="1" style="8" min="1" max="2"/>
+    <col width="11.2109375" customWidth="1" style="8" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -543,725 +596,1947 @@
           <t>時間</t>
         </is>
       </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="n">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>0.4568634259259259</v>
       </c>
+      <c r="C2" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="n">
         <v>0.4594328703703704</v>
       </c>
+      <c r="C3" s="5" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="n">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="n">
         <v>0.4620601851851852</v>
       </c>
+      <c r="C4" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="n">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="n">
         <v>0.5016319444444445</v>
       </c>
+      <c r="C5" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D5" s="12" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="n">
         <v>0.5027083333333333</v>
       </c>
+      <c r="C6" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D6" s="12" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="n">
         <v>0.5069212962962963</v>
       </c>
+      <c r="C7" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D7" s="12" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>切_2-1</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="n">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="n">
         <v>0.5076620370370371</v>
       </c>
+      <c r="C8" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D8" s="12" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="n">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="n">
         <v>0.5121180555555556</v>
       </c>
+      <c r="C9" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>切_2-1</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="n">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n">
         <v>0.5127314814814815</v>
       </c>
+      <c r="C10" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
         <v>0.5142708333333333</v>
       </c>
+      <c r="C11" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D11" s="12" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n">
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
         <v>0.5154745370370371</v>
       </c>
+      <c r="C12" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D12" s="12" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
         <v>0.5164004629629629</v>
       </c>
+      <c r="C13" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D13" s="12" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>切_2-1</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="n">
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
         <v>0.5200694444444445</v>
       </c>
+      <c r="C14" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D14" s="12" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n">
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
         <v>0.5224074074074074</v>
       </c>
+      <c r="C15" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D15" s="12" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="n">
+      <c r="A16" s="9" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
         <v>0.5234953703703704</v>
       </c>
+      <c r="C16" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D16" s="12" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="n">
+      <c r="A17" s="9" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
         <v>0.524375</v>
       </c>
+      <c r="C17" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D17" s="12" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>切_2-1</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="n">
+      <c r="A18" s="9" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
         <v>0.5306481481481482</v>
       </c>
+      <c r="C18" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D18" s="12" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n">
+      <c r="A19" s="9" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
         <v>0.5319560185185185</v>
       </c>
+      <c r="C19" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D19" s="12" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="n">
+      <c r="A20" s="9" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
         <v>0.5330092592592592</v>
       </c>
+      <c r="C20" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D20" s="12" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="n">
+      <c r="A21" s="9" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
         <v>0.5339236111111111</v>
       </c>
+      <c r="C21" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D21" s="12" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="inlineStr">
-        <is>
-          <t>切_2-1</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="n">
+      <c r="A22" s="9" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
         <v>0.5385532407407407</v>
       </c>
+      <c r="C22" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D22" s="12" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B23" s="7" t="n">
+      <c r="A23" s="9" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
         <v>0.5418055555555555</v>
       </c>
+      <c r="C23" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D23" s="12" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n">
+      <c r="A24" s="9" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
         <v>0.5430324074074074</v>
       </c>
+      <c r="C24" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D24" s="12" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="n">
+      <c r="A25" s="9" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
         <v>0.544212962962963</v>
       </c>
+      <c r="C25" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D25" s="12" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="inlineStr">
-        <is>
-          <t>切_2-1</t>
-        </is>
-      </c>
-      <c r="B26" s="7" t="n">
+      <c r="A26" s="9" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
         <v>0.5503587962962962</v>
       </c>
+      <c r="C26" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D26" s="12" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="n">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="n">
         <v>0.551863425925926</v>
       </c>
+      <c r="C27" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="n">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="n">
         <v>0.5547337962962963</v>
       </c>
+      <c r="C28" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
-        <is>
-          <t>切_2-1</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="n">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="n">
         <v>0.5594675925925926</v>
       </c>
+      <c r="C29" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="n">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="n">
         <v>0.5604745370370371</v>
       </c>
+      <c r="C30" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="n">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B31" s="7" t="n">
         <v>0.5611458333333333</v>
       </c>
+      <c r="C31" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="n">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="n">
         <v>0.5641087962962963</v>
       </c>
+      <c r="C32" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="n">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="n">
         <v>0.5641550925925926</v>
       </c>
+      <c r="C33" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
-        <is>
-          <t>切_2-1</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="n">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B34" s="7" t="n">
         <v>0.5684953703703703</v>
       </c>
+      <c r="C34" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="n">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="n">
         <v>0.5712847222222223</v>
       </c>
+      <c r="C35" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="n">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="n">
         <v>0.5729513888888889</v>
       </c>
+      <c r="C36" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="n">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="n">
         <v>0.5769791666666667</v>
       </c>
+      <c r="C37" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="n">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B38" s="7" t="n">
         <v>0.5814583333333333</v>
       </c>
+      <c r="C38" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
-        <is>
-          <t>切_2-1</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="n">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B39" s="7" t="n">
         <v>0.5821875</v>
       </c>
+      <c r="C39" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="n">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B40" s="7" t="n">
         <v>0.5831828703703704</v>
       </c>
+      <c r="C40" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="n">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="n">
         <v>0.5847222222222223</v>
       </c>
+      <c r="C41" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="n">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="n">
         <v>0.5862268518518519</v>
       </c>
+      <c r="C42" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="inlineStr">
-        <is>
-          <t>切_2-1</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="n">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B43" s="7" t="n">
         <v>0.5930439814814815</v>
       </c>
+      <c r="C43" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="n">
+      <c r="A44" s="9" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
         <v>0.5945949074074074</v>
       </c>
+      <c r="C44" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D44" s="12" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B45" s="7" t="n">
+      <c r="A45" s="9" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n">
         <v>0.5950462962962964</v>
       </c>
+      <c r="C45" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D45" s="12" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B46" s="7" t="n">
+      <c r="A46" s="9" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n">
         <v>0.597025462962963</v>
       </c>
+      <c r="C46" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D46" s="12" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>切_2-1</t>
-        </is>
-      </c>
-      <c r="B47" s="7" t="n">
+      <c r="A47" s="9" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
         <v>0.6007638888888889</v>
       </c>
+      <c r="C47" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D47" s="12" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B48" s="4" t="n">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="n">
         <v>0.6044097222222222</v>
       </c>
+      <c r="C48" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="n">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="n">
         <v>0.6060648148148148</v>
       </c>
+      <c r="C49" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="n">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B50" s="7" t="n">
         <v>0.6165046296296296</v>
       </c>
+      <c r="C50" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="n">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B51" s="7" t="n">
         <v>0.6194212962962963</v>
       </c>
+      <c r="C51" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B52" s="7" t="n">
+      <c r="A52" s="9" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="n">
         <v>0.6347800925925926</v>
       </c>
+      <c r="C52" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D52" s="12" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B53" s="7" t="n">
+      <c r="A53" s="9" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="n">
         <v>0.6353935185185186</v>
       </c>
+      <c r="C53" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D53" s="12" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B54" s="7" t="n">
+      <c r="A54" s="9" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="n">
         <v>0.6371875</v>
       </c>
+      <c r="C54" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D54" s="12" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>切_2-1</t>
-        </is>
-      </c>
-      <c r="B55" s="7" t="n">
+      <c r="A55" s="9" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="n">
         <v>0.6403703703703704</v>
       </c>
+      <c r="C55" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D55" s="12" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B56" s="4" t="n">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="n">
         <v>0.6413425925925926</v>
       </c>
+      <c r="C56" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B57" s="4" t="n">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B57" s="7" t="n">
         <v>0.6431481481481481</v>
       </c>
+      <c r="C57" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B58" s="4" t="n">
+      <c r="A58" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B58" s="7" t="n">
         <v>0.6442013888888889</v>
       </c>
+      <c r="C58" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="inlineStr">
-        <is>
-          <t>切_2-1</t>
-        </is>
-      </c>
-      <c r="B59" s="4" t="n">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B59" s="7" t="n">
         <v>0.6479976851851852</v>
       </c>
+      <c r="C59" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B60" s="4" t="n">
+      <c r="A60" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B60" s="7" t="n">
         <v>0.6488657407407408</v>
       </c>
+      <c r="C60" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B61" s="4" t="n">
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B61" s="7" t="n">
         <v>0.648900462962963</v>
       </c>
+      <c r="C61" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B62" s="4" t="n">
+      <c r="A62" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B62" s="7" t="n">
         <v>0.6502430555555555</v>
       </c>
+      <c r="C62" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="inlineStr">
-        <is>
-          <t>切_2-1</t>
-        </is>
-      </c>
-      <c r="B63" s="4" t="n">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B63" s="7" t="n">
         <v>0.6538657407407408</v>
       </c>
+      <c r="C63" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B64" s="4" t="n">
+      <c r="A64" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B64" s="7" t="n">
         <v>0.6547106481481482</v>
       </c>
+      <c r="C64" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B65" s="4" t="n">
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B65" s="7" t="n">
         <v>0.6555439814814815</v>
       </c>
+      <c r="C65" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="inlineStr">
-        <is>
-          <t>切_2-1</t>
-        </is>
-      </c>
-      <c r="B66" s="4" t="n">
+      <c r="A66" s="6" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B66" s="7" t="n">
         <v>0.658587962962963</v>
       </c>
+      <c r="C66" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="6" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B67" s="7" t="n">
+      <c r="A67" s="9" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="n">
         <v>0.661238425925926</v>
       </c>
+      <c r="C67" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D67" s="12" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B68" s="7" t="n">
+      <c r="A68" s="9" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B68" s="10" t="n">
         <v>0.6618055555555555</v>
       </c>
+      <c r="C68" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D68" s="12" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B69" s="7" t="n">
+      <c r="A69" s="9" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B69" s="10" t="n">
         <v>0.6628587962962963</v>
       </c>
+      <c r="C69" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D69" s="12" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="8" t="inlineStr">
-        <is>
-          <t>切_2-1</t>
-        </is>
-      </c>
-      <c r="B70" s="7" t="n">
+      <c r="A70" s="9" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B70" s="10" t="n">
         <v>0.6684606481481481</v>
       </c>
+      <c r="C70" s="11" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D70" s="12" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="inlineStr">
-        <is>
-          <t>巻_1</t>
-        </is>
-      </c>
-      <c r="B71" s="4" t="n">
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B71" s="7" t="n">
         <v>0.6694444444444444</v>
       </c>
+      <c r="C71" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="inlineStr">
-        <is>
-          <t>巻_2</t>
-        </is>
-      </c>
-      <c r="B72" s="4" t="n">
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B72" s="7" t="n">
         <v>0.6699537037037037</v>
       </c>
+      <c r="C72" s="5" t="n">
+        <v>45535</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="inlineStr">
-        <is>
-          <t>切_1</t>
-        </is>
-      </c>
-      <c r="B73" s="4" t="n">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B73" s="7" t="n">
         <v>0.6708333333333333</v>
+      </c>
+      <c r="C73" s="5" t="n">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B74" s="7" t="n">
+        <v>0.4568634259259259</v>
+      </c>
+      <c r="C74" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B75" s="7" t="n">
+        <v>0.4594328703703704</v>
+      </c>
+      <c r="C75" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B76" s="7" t="n">
+        <v>0.4620601851851852</v>
+      </c>
+      <c r="C76" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B77" s="10" t="n">
+        <v>0.5016319444444445</v>
+      </c>
+      <c r="C77" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D77" s="12" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B78" s="10" t="n">
+        <v>0.5027083333333333</v>
+      </c>
+      <c r="C78" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D78" s="12" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B79" s="10" t="n">
+        <v>0.5069212962962963</v>
+      </c>
+      <c r="C79" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D79" s="12" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B80" s="10" t="n">
+        <v>0.5076620370370371</v>
+      </c>
+      <c r="C80" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D80" s="12" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B81" s="7" t="n">
+        <v>0.5121180555555556</v>
+      </c>
+      <c r="C81" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B82" s="7" t="n">
+        <v>0.5127314814814815</v>
+      </c>
+      <c r="C82" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B83" s="10" t="n">
+        <v>0.5142708333333333</v>
+      </c>
+      <c r="C83" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D83" s="12" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B84" s="10" t="n">
+        <v>0.5154745370370371</v>
+      </c>
+      <c r="C84" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D84" s="12" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B85" s="10" t="n">
+        <v>0.5164004629629629</v>
+      </c>
+      <c r="C85" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D85" s="12" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B86" s="10" t="n">
+        <v>0.5200694444444445</v>
+      </c>
+      <c r="C86" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D86" s="12" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B87" s="10" t="n">
+        <v>0.5224074074074074</v>
+      </c>
+      <c r="C87" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D87" s="12" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B88" s="10" t="n">
+        <v>0.5234953703703704</v>
+      </c>
+      <c r="C88" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D88" s="12" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B89" s="10" t="n">
+        <v>0.524375</v>
+      </c>
+      <c r="C89" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D89" s="12" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B90" s="10" t="n">
+        <v>0.5306481481481482</v>
+      </c>
+      <c r="C90" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D90" s="12" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B91" s="10" t="n">
+        <v>0.5319560185185185</v>
+      </c>
+      <c r="C91" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D91" s="12" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B92" s="10" t="n">
+        <v>0.5330092592592592</v>
+      </c>
+      <c r="C92" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D92" s="12" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B93" s="10" t="n">
+        <v>0.5339236111111111</v>
+      </c>
+      <c r="C93" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D93" s="12" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B94" s="10" t="n">
+        <v>0.5385532407407407</v>
+      </c>
+      <c r="C94" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D94" s="12" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B95" s="10" t="n">
+        <v>0.5418055555555555</v>
+      </c>
+      <c r="C95" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D95" s="12" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B96" s="10" t="n">
+        <v>0.5430324074074074</v>
+      </c>
+      <c r="C96" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D96" s="12" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B97" s="10" t="n">
+        <v>0.544212962962963</v>
+      </c>
+      <c r="C97" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D97" s="12" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B98" s="10" t="n">
+        <v>0.5503587962962962</v>
+      </c>
+      <c r="C98" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D98" s="12" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B99" s="7" t="n">
+        <v>0.551863425925926</v>
+      </c>
+      <c r="C99" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B100" s="7" t="n">
+        <v>0.5547337962962963</v>
+      </c>
+      <c r="C100" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B101" s="7" t="n">
+        <v>0.5594675925925926</v>
+      </c>
+      <c r="C101" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B102" s="7" t="n">
+        <v>0.5604745370370371</v>
+      </c>
+      <c r="C102" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B103" s="7" t="n">
+        <v>0.5611458333333333</v>
+      </c>
+      <c r="C103" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B104" s="7" t="n">
+        <v>0.5641087962962963</v>
+      </c>
+      <c r="C104" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B105" s="7" t="n">
+        <v>0.5641550925925926</v>
+      </c>
+      <c r="C105" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="6" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B106" s="7" t="n">
+        <v>0.5684953703703703</v>
+      </c>
+      <c r="C106" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B107" s="7" t="n">
+        <v>0.5712847222222223</v>
+      </c>
+      <c r="C107" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B108" s="7" t="n">
+        <v>0.5729513888888889</v>
+      </c>
+      <c r="C108" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B109" s="7" t="n">
+        <v>0.5769791666666667</v>
+      </c>
+      <c r="C109" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B110" s="7" t="n">
+        <v>0.5814583333333333</v>
+      </c>
+      <c r="C110" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B111" s="7" t="n">
+        <v>0.5821875</v>
+      </c>
+      <c r="C111" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B112" s="7" t="n">
+        <v>0.5831828703703704</v>
+      </c>
+      <c r="C112" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B113" s="7" t="n">
+        <v>0.5847222222222223</v>
+      </c>
+      <c r="C113" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B114" s="7" t="n">
+        <v>0.5862268518518519</v>
+      </c>
+      <c r="C114" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B115" s="7" t="n">
+        <v>0.5930439814814815</v>
+      </c>
+      <c r="C115" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B116" s="10" t="n">
+        <v>0.5945949074074074</v>
+      </c>
+      <c r="C116" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D116" s="12" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B117" s="10" t="n">
+        <v>0.5950462962962964</v>
+      </c>
+      <c r="C117" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D117" s="12" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B118" s="10" t="n">
+        <v>0.597025462962963</v>
+      </c>
+      <c r="C118" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D118" s="12" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B119" s="10" t="n">
+        <v>0.6007638888888889</v>
+      </c>
+      <c r="C119" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D119" s="12" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B120" s="7" t="n">
+        <v>0.6044097222222222</v>
+      </c>
+      <c r="C120" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B121" s="7" t="n">
+        <v>0.6060648148148148</v>
+      </c>
+      <c r="C121" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B122" s="7" t="n">
+        <v>0.6165046296296296</v>
+      </c>
+      <c r="C122" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B123" s="7" t="n">
+        <v>0.6194212962962963</v>
+      </c>
+      <c r="C123" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B124" s="10" t="n">
+        <v>0.6347800925925926</v>
+      </c>
+      <c r="C124" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D124" s="12" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B125" s="10" t="n">
+        <v>0.6353935185185186</v>
+      </c>
+      <c r="C125" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D125" s="12" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B126" s="10" t="n">
+        <v>0.6371875</v>
+      </c>
+      <c r="C126" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D126" s="12" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B127" s="10" t="n">
+        <v>0.6403703703703704</v>
+      </c>
+      <c r="C127" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D127" s="12" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B128" s="7" t="n">
+        <v>0.6413425925925926</v>
+      </c>
+      <c r="C128" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B129" s="7" t="n">
+        <v>0.6431481481481481</v>
+      </c>
+      <c r="C129" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B130" s="7" t="n">
+        <v>0.6442013888888889</v>
+      </c>
+      <c r="C130" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B131" s="7" t="n">
+        <v>0.6479976851851852</v>
+      </c>
+      <c r="C131" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B132" s="7" t="n">
+        <v>0.6488657407407408</v>
+      </c>
+      <c r="C132" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B133" s="7" t="n">
+        <v>0.648900462962963</v>
+      </c>
+      <c r="C133" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B134" s="7" t="n">
+        <v>0.6502430555555555</v>
+      </c>
+      <c r="C134" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="6" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B135" s="7" t="n">
+        <v>0.6538657407407408</v>
+      </c>
+      <c r="C135" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B136" s="7" t="n">
+        <v>0.6547106481481482</v>
+      </c>
+      <c r="C136" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B137" s="7" t="n">
+        <v>0.6555439814814815</v>
+      </c>
+      <c r="C137" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="6" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B138" s="7" t="n">
+        <v>0.658587962962963</v>
+      </c>
+      <c r="C138" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="9" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B139" s="10" t="n">
+        <v>0.661238425925926</v>
+      </c>
+      <c r="C139" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D139" s="12" t="n"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="9" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B140" s="10" t="n">
+        <v>0.6618055555555555</v>
+      </c>
+      <c r="C140" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D140" s="12" t="n"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="9" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B141" s="10" t="n">
+        <v>0.6628587962962963</v>
+      </c>
+      <c r="C141" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D141" s="12" t="n"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B142" s="10" t="n">
+        <v>0.6684606481481481</v>
+      </c>
+      <c r="C142" s="11" t="n">
+        <v>45536</v>
+      </c>
+      <c r="D142" s="12" t="n"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="6" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B143" s="7" t="n">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="C143" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="6" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B144" s="7" t="n">
+        <v>0.6699537037037037</v>
+      </c>
+      <c r="C144" s="5" t="n">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="6" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B145" s="7" t="n">
+        <v>0.6708333333333333</v>
+      </c>
+      <c r="C145" s="5" t="n">
+        <v>45536</v>
       </c>
     </row>
   </sheetData>
